--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -511,14 +511,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EEBBA7-D4A5-48E4-B590-45E9065EBDB3}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.5703125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -565,7 +566,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -589,7 +590,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -597,7 +598,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projets\C Party\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Couch_Party\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Unifier le vocabulaire des fonctionnalités</t>
   </si>
@@ -120,13 +120,23 @@
   </si>
   <si>
     <t>Ne pas oublier de faire remonter les Bugs</t>
+  </si>
+  <si>
+    <t>Création de la map</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,13 +198,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,24 +520,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EEBBA7-D4A5-48E4-B590-45E9065EBDB3}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="3"/>
+    <col min="5" max="5" width="20" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -536,7 +549,7 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>0</v>
       </c>
     </row>
@@ -544,7 +557,7 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>0</v>
       </c>
     </row>
@@ -552,7 +565,7 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>0</v>
       </c>
     </row>
@@ -560,7 +573,7 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>0</v>
       </c>
     </row>
@@ -568,7 +581,7 @@
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>0</v>
       </c>
     </row>
@@ -576,7 +589,7 @@
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>0</v>
       </c>
     </row>
@@ -584,7 +597,7 @@
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>0</v>
       </c>
     </row>
@@ -592,7 +605,7 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>0</v>
       </c>
     </row>
@@ -600,7 +613,7 @@
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>0</v>
       </c>
     </row>
@@ -608,7 +621,7 @@
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -618,7 +631,7 @@
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="5">
         <v>1</v>
       </c>
     </row>
@@ -626,7 +639,7 @@
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="4">
         <v>0</v>
       </c>
     </row>
@@ -634,7 +647,7 @@
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="4">
         <v>0</v>
       </c>
     </row>
@@ -642,7 +655,7 @@
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="4">
         <v>0</v>
       </c>
     </row>
@@ -650,7 +663,7 @@
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="4">
         <v>0</v>
       </c>
     </row>
@@ -658,7 +671,7 @@
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="4">
         <v>0</v>
       </c>
     </row>
@@ -666,7 +679,7 @@
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -676,7 +689,7 @@
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="4">
         <v>0</v>
       </c>
     </row>
@@ -684,7 +697,7 @@
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -694,7 +707,7 @@
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="4">
         <v>0</v>
       </c>
     </row>
@@ -702,7 +715,7 @@
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="4">
         <v>0</v>
       </c>
     </row>
@@ -710,7 +723,7 @@
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="4">
         <v>0</v>
       </c>
     </row>
@@ -718,7 +731,7 @@
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="4">
         <v>0</v>
       </c>
     </row>
@@ -726,7 +739,7 @@
       <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
@@ -736,7 +749,7 @@
       <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -744,7 +757,7 @@
       <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="4">
         <v>0</v>
       </c>
     </row>
@@ -752,7 +765,7 @@
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="4">
         <v>0</v>
       </c>
     </row>
@@ -778,7 +791,16 @@
       </c>
       <c r="B42" s="1"/>
     </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -41,9 +41,6 @@
     <t>Menu Pause</t>
   </si>
   <si>
-    <t>Méccaniques de Grab Objects</t>
-  </si>
-  <si>
     <t>Mécaniques de rangement</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>Création de la map</t>
+  </si>
+  <si>
+    <t>Mécaniques de Grab Objects</t>
   </si>
 </sst>
 </file>
@@ -160,13 +160,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,11 +201,11 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,7 +523,7 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +537,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -549,8 +549,8 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
+      <c r="B3" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -579,7 +579,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2"/>
     </row>
@@ -629,15 +629,15 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="4">
         <v>0</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4">
         <v>0</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2"/>
     </row>
@@ -687,7 +687,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="4">
         <v>0</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="2"/>
     </row>
@@ -705,7 +705,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="4">
         <v>0</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="4">
         <v>0</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="4">
         <v>0</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="4">
         <v>0</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" s="2"/>
     </row>
@@ -747,15 +747,15 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="6" t="s">
         <v>25</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" s="4">
         <v>0</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" s="4">
         <v>0</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1"/>
     </row>
@@ -781,19 +781,19 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B42" s="1"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" s="4">
         <v>0</v>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Couch_Party\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\Desktop\cours E-artsup\Projets Unity\Piscine multi\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -523,29 +523,29 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="51.54296875" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="3"/>
+    <col min="3" max="4" width="11.453125" style="3"/>
     <col min="5" max="5" width="20" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="3"/>
+    <col min="6" max="16384" width="11.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -617,17 +617,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -635,15 +635,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -651,15 +651,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -675,17 +675,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -693,17 +693,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -735,17 +735,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
@@ -753,7 +753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>26</v>
       </c>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
@@ -769,29 +769,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\Desktop\cours E-artsup\Projets Unity\Piscine multi\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Couch_Party\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -145,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +167,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,9 +209,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,280 +528,280 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EEBBA7-D4A5-48E4-B590-45E9065EBDB3}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.54296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="3"/>
+    <col min="1" max="1" width="51.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="3"/>
     <col min="5" max="5" width="20" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="3"/>
+    <col min="6" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -529,7 +529,7 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Unifier le vocabulaire des fonctionnalités</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Mécaniques de Grab Objects</t>
+  </si>
+  <si>
+    <t>(A poffiner)</t>
   </si>
 </sst>
 </file>
@@ -526,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EEBBA7-D4A5-48E4-B590-45E9065EBDB3}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,17 +544,17 @@
     <col min="6" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,15 +562,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -575,7 +581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -583,7 +589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -591,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -599,7 +605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -607,7 +613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -615,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -623,17 +629,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -641,7 +647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -125,7 +125,7 @@
     <t>Mécaniques de Grab Objects</t>
   </si>
   <si>
-    <t>(A poffiner)</t>
+    <t>(A pauffiner)</t>
   </si>
 </sst>
 </file>
@@ -532,14 +532,15 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="3"/>
+    <col min="3" max="3" width="12.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3"/>
     <col min="5" max="5" width="20" style="3" customWidth="1"/>
     <col min="6" max="16384" width="11.42578125" style="3"/>
   </cols>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Couch_Party\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\Desktop\cours E-artsup\Projets Unity\Piscine multi\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -532,30 +532,30 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="51.54296875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="3"/>
     <col min="5" max="5" width="20" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="3"/>
+    <col min="6" max="16384" width="11.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -574,7 +574,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -630,17 +630,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -680,25 +680,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -706,17 +706,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -748,17 +748,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
@@ -766,7 +766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>26</v>
       </c>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
@@ -782,29 +782,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\Desktop\cours E-artsup\Projets Unity\Piscine multi\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projets\C Party\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Unifier le vocabulaire des fonctionnalités</t>
   </si>
@@ -126,6 +127,18 @@
   </si>
   <si>
     <t>(A pauffiner)</t>
+  </si>
+  <si>
+    <t>Ui Déplacements</t>
+  </si>
+  <si>
+    <t>Attraper un objet (Hold RT) et relacher RT pour lacher</t>
+  </si>
+  <si>
+    <t>Jeter un objet (LT tout en pressant RT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appuyer sur A pour déposer un objet prés d'un conteneur </t>
   </si>
 </sst>
 </file>
@@ -180,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -203,11 +216,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -215,6 +239,9 @@
     <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,33 +556,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EEBBA7-D4A5-48E4-B590-45E9065EBDB3}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.54296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" style="3"/>
+    <col min="1" max="1" width="51.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3"/>
     <col min="5" max="5" width="20" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="3"/>
+    <col min="6" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -574,7 +601,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -582,7 +609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -590,7 +617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -598,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -606,7 +633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -614,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -622,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -630,17 +657,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -648,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -656,15 +683,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -672,15 +699,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -688,127 +715,159 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="B35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B40" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+      <c r="B41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="B42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B49" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Unifier le vocabulaire des fonctionnalités</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t xml:space="preserve">Appuyer sur A pour déposer un objet prés d'un conteneur </t>
+  </si>
+  <si>
+    <t>Ecran de pause</t>
   </si>
 </sst>
 </file>
@@ -193,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -216,22 +219,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -239,9 +231,8 @@
     <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,7 +550,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +710,7 @@
       <c r="A21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>0</v>
       </c>
     </row>
@@ -727,7 +718,7 @@
       <c r="A22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="5">
         <v>0</v>
       </c>
     </row>
@@ -735,7 +726,7 @@
       <c r="A23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="5">
         <v>0</v>
       </c>
     </row>
@@ -743,7 +734,15 @@
       <c r="A24" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projets\C Party\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tentapoulpe\Desktop\Couch_Party\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{ACCB3BAB-0A22-414B-8B50-5F6751B2C8D8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" xr2:uid="{ACCB3BAB-0A22-414B-8B50-5F6751B2C8D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +192,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -233,6 +239,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,30 +557,30 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="51.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="3"/>
     <col min="5" max="5" width="20" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="3"/>
+    <col min="6" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -592,7 +599,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -600,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -608,7 +615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -616,7 +623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -624,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -632,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -640,25 +647,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -666,7 +673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -674,7 +681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -682,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -690,7 +697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -698,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -706,7 +713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>34</v>
       </c>
@@ -714,7 +721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>35</v>
       </c>
@@ -722,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>36</v>
       </c>
@@ -730,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>37</v>
       </c>
@@ -738,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>38</v>
       </c>
@@ -746,17 +753,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -764,17 +771,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
@@ -782,7 +789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
@@ -790,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -798,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -806,17 +813,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>
@@ -824,7 +831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>26</v>
       </c>
@@ -832,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>27</v>
       </c>
@@ -840,29 +847,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B47" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>31</v>
       </c>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tentapoulpe\Desktop\Couch_Party\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Couch_Party\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" xr2:uid="{ACCB3BAB-0A22-414B-8B50-5F6751B2C8D8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{ACCB3BAB-0A22-414B-8B50-5F6751B2C8D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -229,17 +229,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,30 +556,30 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="3"/>
+    <col min="1" max="1" width="51.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3"/>
     <col min="5" max="5" width="20" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="3"/>
+    <col min="6" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,7 +587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -599,7 +598,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -607,15 +606,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -623,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -631,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -639,7 +638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -647,25 +646,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -673,7 +672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -681,7 +680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -689,7 +688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -697,7 +696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -705,7 +704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -713,15 +712,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>35</v>
       </c>
@@ -729,7 +728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>36</v>
       </c>
@@ -737,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>37</v>
       </c>
@@ -745,7 +744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>38</v>
       </c>
@@ -753,17 +752,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -771,17 +770,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
@@ -789,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
@@ -797,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -805,7 +804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -813,25 +812,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>26</v>
       </c>
@@ -839,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>27</v>
       </c>
@@ -847,29 +846,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B47" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>31</v>
       </c>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Couch_Party\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\Desktop\cours E-artsup\Projets Unity\Piscine multi\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Unifier le vocabulaire des fonctionnalités</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Ecran de pause</t>
+  </si>
+  <si>
+    <t>Ranger les préfabs</t>
   </si>
 </sst>
 </file>
@@ -202,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -225,11 +228,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -239,6 +253,9 @@
     <xf numFmtId="9" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,33 +570,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EEBBA7-D4A5-48E4-B590-45E9065EBDB3}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="51.54296875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="3"/>
     <col min="5" max="5" width="20" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="3"/>
+    <col min="6" max="16384" width="11.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,7 +604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -598,7 +615,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -606,7 +623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -614,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -622,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -630,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -638,7 +655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -646,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -654,17 +671,17 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -672,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -680,7 +697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -688,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -696,7 +713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -704,7 +721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -712,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>34</v>
       </c>
@@ -720,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>35</v>
       </c>
@@ -728,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>36</v>
       </c>
@@ -736,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>37</v>
       </c>
@@ -744,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>38</v>
       </c>
@@ -752,127 +769,135 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="B39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B43" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="B44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="B45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B52" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\Desktop\cours E-artsup\Projets Unity\Piscine multi\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projets\Coucouch\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Unifier le vocabulaire des fonctionnalités</t>
   </si>
@@ -144,7 +144,7 @@
     <t>Ecran de pause</t>
   </si>
   <si>
-    <t>Ranger les préfabs</t>
+    <t>(bug axes)</t>
   </si>
 </sst>
 </file>
@@ -243,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -256,6 +256,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,31 +575,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EEBBA7-D4A5-48E4-B590-45E9065EBDB3}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.54296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" style="3"/>
+    <col min="1" max="1" width="51.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3"/>
     <col min="5" max="5" width="20" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="3"/>
+    <col min="6" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -615,15 +618,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -631,15 +637,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -647,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -655,15 +661,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -671,17 +677,17 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -689,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -697,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -705,7 +711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -713,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -721,7 +727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -729,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>34</v>
       </c>
@@ -737,7 +743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>35</v>
       </c>
@@ -745,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>36</v>
       </c>
@@ -753,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>37</v>
       </c>
@@ -761,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>38</v>
       </c>
@@ -769,131 +775,147 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="B29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="B34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B36" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="B41" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="B49" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B50" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>31</v>
       </c>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projets\Coucouch\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Couch_P\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Unifier le vocabulaire des fonctionnalités</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>(bug axes)</t>
+  </si>
+  <si>
+    <t>Code Tuto</t>
   </si>
 </sst>
 </file>
@@ -205,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -228,22 +231,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -252,13 +244,10 @@
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EEBBA7-D4A5-48E4-B590-45E9065EBDB3}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +630,7 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>1</v>
       </c>
     </row>
@@ -677,11 +666,17 @@
         <v>0.4</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -689,23 +684,17 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
@@ -713,7 +702,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -721,7 +710,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
@@ -729,31 +718,31 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="5">
-        <v>0</v>
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0</v>
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" s="5">
         <v>0</v>
@@ -761,7 +750,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" s="5">
         <v>0</v>
@@ -769,157 +758,187 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="12">
-        <v>0</v>
-      </c>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="5"/>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="13">
-        <v>0</v>
-      </c>
+      <c r="A33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="12">
-        <v>0</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="5"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="14">
+        <v>19</v>
+      </c>
+      <c r="B35" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="5">
+        <v>20</v>
+      </c>
+      <c r="B36" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5"/>
+      <c r="A37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="5"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="5"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="12">
-        <v>0</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="5"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="14">
-        <v>0.3</v>
+        <v>25</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="8"/>
+      <c r="A43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="B44" s="9">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="5"/>
+      <c r="B45" s="10"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
+      <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B51" s="8">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" s="2"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B54" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Unifier le vocabulaire des fonctionnalités</t>
   </si>
@@ -244,10 +244,10 @@
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,7 +565,7 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,13 +782,15 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="B28" s="11"/>
+      <c r="B28" s="8"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
@@ -798,9 +800,7 @@
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="8">
-        <v>0</v>
-      </c>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
@@ -810,17 +810,17 @@
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="11"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="5"/>
+      <c r="B34" s="8"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="5">
         <v>0</v>
       </c>
     </row>
@@ -828,7 +828,7 @@
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="5">
         <v>0</v>
       </c>
     </row>
@@ -836,7 +836,7 @@
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="5">
         <v>0</v>
       </c>
     </row>
@@ -850,17 +850,17 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="5"/>
+      <c r="B39" s="8"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="5"/>
+      <c r="B40" s="8"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="5"/>
+      <c r="B41" s="8"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -874,7 +874,7 @@
       <c r="A43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="5">
         <v>0</v>
       </c>
     </row>
@@ -882,7 +882,7 @@
       <c r="A44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="5">
         <v>0.3</v>
       </c>
     </row>
@@ -914,13 +914,13 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
+      <c r="B50" s="10"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="5">
         <v>0.3</v>
       </c>
     </row>
@@ -928,19 +928,15 @@
       <c r="A52" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="2"/>
+      <c r="B52" s="10"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54" s="5">
-        <v>0</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -235,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -246,8 +246,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EEBBA7-D4A5-48E4-B590-45E9065EBDB3}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,8 +657,8 @@
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5">
-        <v>0.6</v>
+      <c r="B10" s="4">
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -681,6 +684,7 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -744,24 +748,24 @@
       <c r="A23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="5">
-        <v>0</v>
+      <c r="B23" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="5">
-        <v>0</v>
+      <c r="B24" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="5">
-        <v>0</v>
+      <c r="B25" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -776,8 +780,8 @@
       <c r="A27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="5">
-        <v>0</v>
+      <c r="B27" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -810,7 +814,7 @@
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="11"/>
+      <c r="B33" s="10"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
@@ -888,7 +892,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="10"/>
+      <c r="B45" s="11"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -914,7 +918,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="10"/>
+      <c r="B50" s="11"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -928,15 +932,19 @@
       <c r="A52" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="10"/>
+      <c r="B52" s="11"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="8"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="14"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -138,9 +138,6 @@
     <t>Jeter un objet (LT tout en pressant RT)</t>
   </si>
   <si>
-    <t xml:space="preserve">Appuyer sur A pour déposer un objet prés d'un conteneur </t>
-  </si>
-  <si>
     <t>Ecran de pause</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>Code Tuto</t>
+  </si>
+  <si>
+    <t>"Appuyer sur A près du conteneur pour y déposer le contenu de la caisse"</t>
   </si>
 </sst>
 </file>
@@ -243,12 +243,12 @@
     <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -568,7 +568,7 @@
   <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +618,7 @@
         <v>0.3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
@@ -684,7 +684,7 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="12"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -745,7 +745,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="4">
@@ -753,7 +753,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="4">
@@ -761,7 +761,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="4">
@@ -769,30 +769,30 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="B27" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="10">
         <v>0</v>
       </c>
     </row>
@@ -814,11 +814,11 @@
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="10"/>
+      <c r="B33" s="11"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="8"/>
+      <c r="B34" s="9"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -854,17 +854,17 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="8"/>
+      <c r="B39" s="9"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="8"/>
+      <c r="B40" s="9"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="8"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -892,7 +892,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="11"/>
+      <c r="B45" s="12"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -918,7 +918,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="11"/>
+      <c r="B50" s="12"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -932,7 +932,7 @@
       <c r="A52" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="11"/>
+      <c r="B52" s="12"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
@@ -943,8 +943,8 @@
       <c r="B54" s="14"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Couch_P\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\OneDrive\Documents\Couch_Party\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="F6166EB056FD41F8C0CF6BFBBB2A6677EFAA02E3" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{594A51DE-F338-4843-8B25-56C6744A8105}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{ACCB3BAB-0A22-414B-8B50-5F6751B2C8D8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" xr2:uid="{ACCB3BAB-0A22-414B-8B50-5F6751B2C8D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -567,31 +568,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EEBBA7-D4A5-48E4-B590-45E9065EBDB3}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="51.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="3"/>
     <col min="5" max="5" width="20" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="3"/>
+    <col min="6" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,7 +600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -610,7 +611,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -621,7 +622,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -629,7 +630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -637,7 +638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -645,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -653,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -661,7 +662,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -669,7 +670,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -677,26 +678,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -704,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -712,7 +713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -720,7 +721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -728,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -736,7 +737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -744,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>34</v>
       </c>
@@ -752,7 +753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>35</v>
       </c>
@@ -760,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>36</v>
       </c>
@@ -768,15 +769,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>37</v>
       </c>
@@ -784,11 +785,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -796,31 +797,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="9"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>19</v>
       </c>
@@ -828,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
@@ -836,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -844,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
@@ -852,21 +853,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="9"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
@@ -874,7 +875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>26</v>
       </c>
@@ -882,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>27</v>
       </c>
@@ -890,37 +891,37 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="12"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>31</v>
       </c>
@@ -928,21 +929,21 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B52" s="12"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
     </row>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\OneDrive\Documents\Couch_Party\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="F6166EB056FD41F8C0CF6BFBBB2A6677EFAA02E3" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{594A51DE-F338-4843-8B25-56C6744A8105}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="F6166EB056FD41F8C0CF6BFBBB2A6677EFAA02E3" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{66A5EB07-0D2C-4D42-96D4-24D1C777345A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" xr2:uid="{ACCB3BAB-0A22-414B-8B50-5F6751B2C8D8}"/>
   </bookViews>
@@ -94,9 +94,6 @@
     <t>Feedback de rangement correct (audio et visu)</t>
   </si>
   <si>
-    <t>Feedback de score (Adio et visu)</t>
-  </si>
-  <si>
     <t>GD/Equilibrage/gestion des bugs</t>
   </si>
   <si>
@@ -149,6 +146,9 @@
   </si>
   <si>
     <t>"Appuyer sur A près du conteneur pour y déposer le contenu de la caisse"</t>
+  </si>
+  <si>
+    <t>Feedback de score (Audio et visu)</t>
   </si>
 </sst>
 </file>
@@ -236,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -252,6 +252,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EEBBA7-D4A5-48E4-B590-45E9065EBDB3}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,7 +609,7 @@
         <v>0.9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -619,7 +620,7 @@
         <v>0.3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -640,7 +641,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -672,7 +673,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
@@ -747,7 +748,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
@@ -755,7 +756,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -763,7 +764,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -771,7 +772,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -779,7 +780,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -846,8 +847,8 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>22</v>
+      <c r="A38" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="B38" s="5">
         <v>0</v>
@@ -859,7 +860,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40" s="9"/>
     </row>
@@ -869,15 +870,15 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43" s="5">
         <v>0</v>
@@ -885,7 +886,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44" s="5">
         <v>0.3</v>
@@ -897,7 +898,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B46" s="5"/>
     </row>
@@ -907,13 +908,13 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49" s="2"/>
     </row>
@@ -923,7 +924,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B51" s="5">
         <v>0.3</v>
@@ -931,7 +932,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B52" s="12"/>
     </row>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\OneDrive\Documents\Couch_Party\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Couch_P\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="F6166EB056FD41F8C0CF6BFBBB2A6677EFAA02E3" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{66A5EB07-0D2C-4D42-96D4-24D1C777345A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" xr2:uid="{ACCB3BAB-0A22-414B-8B50-5F6751B2C8D8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{ACCB3BAB-0A22-414B-8B50-5F6751B2C8D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Unifier le vocabulaire des fonctionnalités</t>
   </si>
@@ -149,6 +148,9 @@
   </si>
   <si>
     <t>Feedback de score (Audio et visu)</t>
+  </si>
+  <si>
+    <t>(bug plusieurs obj en même temps)</t>
   </si>
 </sst>
 </file>
@@ -252,7 +254,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,31 +571,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EEBBA7-D4A5-48E4-B590-45E9065EBDB3}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="3"/>
+    <col min="1" max="1" width="51.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3"/>
     <col min="5" max="5" width="20" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="3"/>
+    <col min="6" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -612,18 +614,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>0.3</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -631,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -639,15 +641,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -655,7 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -663,7 +668,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -671,7 +676,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -679,26 +684,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -706,7 +711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -714,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -722,7 +727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -730,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -738,7 +743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -746,7 +751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>33</v>
       </c>
@@ -754,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>34</v>
       </c>
@@ -762,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>35</v>
       </c>
@@ -770,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>39</v>
       </c>
@@ -778,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>36</v>
       </c>
@@ -786,11 +791,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -798,31 +803,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="9"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>19</v>
       </c>
@@ -830,7 +835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
@@ -838,7 +843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -846,29 +851,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="9"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>24</v>
       </c>
@@ -876,7 +881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>25</v>
       </c>
@@ -884,67 +889,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="12"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="5"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="15"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B52" s="12"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
     </row>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Couch_P\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projets\Coucouch\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Unifier le vocabulaire des fonctionnalités</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>(bug plusieurs obj en même temps)</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -253,8 +256,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EEBBA7-D4A5-48E4-B590-45E9065EBDB3}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,17 +820,17 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="9"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>19</v>
       </c>
@@ -835,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
@@ -843,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -851,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -859,21 +862,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="9"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>24</v>
       </c>
@@ -881,7 +884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>25</v>
       </c>
@@ -889,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>26</v>
       </c>
@@ -897,61 +900,48 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="12"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="15"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="E47" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="14"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="12"/>
+      <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="12"/>
+      <c r="B51" s="12"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projets\Coucouch\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\OneDrive\Documents\Couch_Party\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="14" documentId="3A68B051B642069D21F09ACEDAA3AF7F8DC6585B" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{2D1011D3-7059-4723-877E-CAA2442EE4E1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{ACCB3BAB-0A22-414B-8B50-5F6751B2C8D8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" xr2:uid="{ACCB3BAB-0A22-414B-8B50-5F6751B2C8D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Unifier le vocabulaire des fonctionnalités</t>
   </si>
@@ -154,6 +155,9 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>feedback audio = OK       feedback visuels : en cours</t>
   </si>
 </sst>
 </file>
@@ -574,31 +578,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EEBBA7-D4A5-48E4-B590-45E9065EBDB3}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="51.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="3"/>
     <col min="5" max="5" width="20" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="3"/>
+    <col min="6" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -617,7 +621,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -628,7 +632,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -636,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -644,7 +648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -655,7 +659,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -663,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -671,7 +675,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -679,7 +683,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -687,26 +691,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -714,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -722,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -730,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -738,7 +742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -746,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -754,7 +758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>33</v>
       </c>
@@ -762,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>34</v>
       </c>
@@ -770,7 +774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>35</v>
       </c>
@@ -778,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>39</v>
       </c>
@@ -786,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>36</v>
       </c>
@@ -794,11 +798,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -806,31 +810,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>19</v>
       </c>
@@ -838,45 +842,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="9"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>24</v>
       </c>
@@ -884,7 +897,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>25</v>
       </c>
@@ -892,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>26</v>
       </c>
@@ -900,7 +913,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>30</v>
       </c>
@@ -908,7 +921,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>27</v>
       </c>
@@ -917,29 +930,29 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B51" s="12"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
     </row>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\OneDrive\Documents\Couch_Party\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Couch_P\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="3A68B051B642069D21F09ACEDAA3AF7F8DC6585B" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{2D1011D3-7059-4723-877E-CAA2442EE4E1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" xr2:uid="{ACCB3BAB-0A22-414B-8B50-5F6751B2C8D8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{ACCB3BAB-0A22-414B-8B50-5F6751B2C8D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Unifier le vocabulaire des fonctionnalités</t>
   </si>
@@ -85,9 +84,6 @@
     <t>Ordre des priorités (Feedbacks)</t>
   </si>
   <si>
-    <t xml:space="preserve">Tuto </t>
-  </si>
-  <si>
     <t>Feedback d'occupation des rangements</t>
   </si>
   <si>
@@ -154,10 +150,10 @@
     <t>(bug plusieurs obj en même temps)</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>feedback audio = OK       feedback visuels : en cours</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -251,17 +247,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,33 +572,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EEBBA7-D4A5-48E4-B590-45E9065EBDB3}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="43.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="3"/>
-    <col min="5" max="5" width="20" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="3"/>
+    <col min="1" max="1" width="51.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -618,21 +617,21 @@
         <v>0.9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0.3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -640,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -648,69 +647,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4">
         <v>0.8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11" s="4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B12" s="5">
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -718,7 +721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -726,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -734,7 +737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -742,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -750,7 +753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -758,51 +761,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="B27" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -810,151 +813,142 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="12"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B37" s="5">
         <v>0.5</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="6">
-        <v>0.5</v>
-      </c>
       <c r="C37" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="6">
+        <v>39</v>
+      </c>
+      <c r="B38" s="5">
         <v>0.25</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="9"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="12"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="E47" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="14"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="12"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="13"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Couch_P\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\OneDrive\Documents\Couch_Party\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="15" documentId="144DF85EFC459811875A08A985D6E3BAD3CD40C5" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{BCE1B4DA-F385-40D4-9F03-7B710D3EE3E0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{ACCB3BAB-0A22-414B-8B50-5F6751B2C8D8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" xr2:uid="{ACCB3BAB-0A22-414B-8B50-5F6751B2C8D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Unifier le vocabulaire des fonctionnalités</t>
   </si>
@@ -154,6 +155,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>lumière scène</t>
+  </si>
+  <si>
+    <t>Nombre de Point</t>
   </si>
 </sst>
 </file>
@@ -214,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -237,6 +244,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -256,8 +274,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,21 +592,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EEBBA7-D4A5-48E4-B590-45E9065EBDB3}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="47.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="51.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -597,11 +615,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,7 +627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -620,7 +638,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -631,7 +649,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -639,7 +657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -647,7 +665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -658,7 +676,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -666,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -674,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -682,7 +700,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -690,7 +708,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -698,22 +716,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -721,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -729,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -737,7 +755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -745,7 +763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -753,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -761,7 +779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>32</v>
       </c>
@@ -769,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>33</v>
       </c>
@@ -777,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>34</v>
       </c>
@@ -785,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>38</v>
       </c>
@@ -793,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>35</v>
       </c>
@@ -801,60 +819,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B30" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="11"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="9"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="11"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="12"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="12"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="B37" s="5">
         <v>0.5</v>
@@ -863,92 +878,107 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B38" s="5">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="9"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="9"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B45" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B46" s="5">
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B47" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="12"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="12"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="13"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\OneDrive\Documents\Couch_Party\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Couch_P\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="144DF85EFC459811875A08A985D6E3BAD3CD40C5" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{BCE1B4DA-F385-40D4-9F03-7B710D3EE3E0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" xr2:uid="{ACCB3BAB-0A22-414B-8B50-5F6751B2C8D8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{ACCB3BAB-0A22-414B-8B50-5F6751B2C8D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Unifier le vocabulaire des fonctionnalités</t>
   </si>
@@ -136,9 +135,6 @@
     <t>Ecran de pause</t>
   </si>
   <si>
-    <t>(bug axes)</t>
-  </si>
-  <si>
     <t>Code Tuto</t>
   </si>
   <si>
@@ -160,7 +156,7 @@
     <t>lumière scène</t>
   </si>
   <si>
-    <t>Nombre de Point</t>
+    <t>Nombre de Points</t>
   </si>
 </sst>
 </file>
@@ -267,15 +263,15 @@
     <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,34 +588,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EEBBA7-D4A5-48E4-B590-45E9065EBDB3}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="47.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="3"/>
+    <col min="1" max="1" width="51.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -638,18 +634,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -657,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -665,7 +658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -673,10 +666,10 @@
         <v>0.8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -684,15 +677,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -700,7 +693,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -708,30 +701,30 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -739,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -747,7 +740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -755,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -763,7 +756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -771,7 +764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -779,95 +772,95 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>38</v>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="11"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="13"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="9"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="11"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="12"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="14"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -875,10 +868,10 @@
         <v>0.5</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -886,43 +879,43 @@
         <v>0.5</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="5">
         <v>0.25</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="9"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="11"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="9"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="11"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="9"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="11"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
@@ -930,7 +923,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
@@ -938,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -946,7 +939,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>29</v>
       </c>
@@ -954,31 +947,31 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="12"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="14"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="13"/>
+      <c r="B53" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Couch_P\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jordan\Couch_Party\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Unifier le vocabulaire des fonctionnalités</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>Mécaniques de Grab Objects</t>
-  </si>
-  <si>
-    <t>(A pauffiner)</t>
   </si>
   <si>
     <t>Ui Déplacements</t>
@@ -261,9 +258,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -589,7 +586,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +605,7 @@
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -628,10 +625,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -666,14 +660,14 @@
         <v>0.8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>0</v>
       </c>
     </row>
@@ -681,7 +675,7 @@
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>0</v>
       </c>
     </row>
@@ -697,15 +691,15 @@
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="7">
         <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="6">
+        <v>35</v>
+      </c>
+      <c r="B13" s="5">
         <v>0</v>
       </c>
     </row>
@@ -774,7 +768,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
@@ -782,7 +776,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -790,7 +784,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -798,7 +792,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -806,7 +800,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -814,9 +808,9 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="7">
+        <v>42</v>
+      </c>
+      <c r="B28" s="6">
         <v>0</v>
       </c>
     </row>
@@ -864,40 +858,40 @@
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="7">
         <v>0.5</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="7">
         <v>0.5</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="5">
+        <v>37</v>
+      </c>
+      <c r="B39" s="7">
         <v>0.25</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="7">
+        <v>41</v>
+      </c>
+      <c r="B40" s="6">
         <v>0</v>
       </c>
     </row>
@@ -927,7 +921,7 @@
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="5">
         <v>0</v>
       </c>
     </row>
@@ -935,7 +929,7 @@
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="7">
         <v>0.3</v>
       </c>
     </row>
@@ -943,7 +937,7 @@
       <c r="A47" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="7">
         <v>0.5</v>
       </c>
     </row>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jordan\Couch_Party\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\OneDrive\Documents\Couch_Party\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="032D89BC67406262B7FC6EF0CC60CD7E2FCF2F1F" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{E21004B1-00A8-4304-A973-A68067F0B542}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{ACCB3BAB-0A22-414B-8B50-5F6751B2C8D8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" xr2:uid="{ACCB3BAB-0A22-414B-8B50-5F6751B2C8D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Unifier le vocabulaire des fonctionnalités</t>
   </si>
@@ -148,9 +149,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>lumière scène</t>
   </si>
   <si>
     <t>Nombre de Points</t>
@@ -252,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -269,6 +267,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,21 +585,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EEBBA7-D4A5-48E4-B590-45E9065EBDB3}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="47.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="51.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -608,11 +608,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -636,7 +636,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -644,7 +644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -663,7 +663,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -687,7 +687,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -695,7 +695,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -703,22 +703,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -726,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -750,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -758,7 +758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>31</v>
       </c>
@@ -774,7 +774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>32</v>
       </c>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>33</v>
       </c>
@@ -790,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>36</v>
       </c>
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>34</v>
       </c>
@@ -806,19 +806,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
@@ -826,35 +826,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="13"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="11"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="14"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -865,7 +865,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -876,7 +876,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -887,29 +887,25 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="11"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="11"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="11"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
@@ -917,7 +913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
@@ -925,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -933,7 +929,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>29</v>
       </c>
@@ -941,29 +937,29 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="15"/>
     </row>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\OneDrive\Documents\Couch_Party\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="032D89BC67406262B7FC6EF0CC60CD7E2FCF2F1F" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{E21004B1-00A8-4304-A973-A68067F0B542}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="032D89BC67406262B7FC6EF0CC60CD7E2FCF2F1F" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{71F5E545-DB86-4CBE-B23B-E37EADB84349}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" xr2:uid="{ACCB3BAB-0A22-414B-8B50-5F6751B2C8D8}"/>
   </bookViews>
@@ -250,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -269,6 +269,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EEBBA7-D4A5-48E4-B590-45E9065EBDB3}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -810,8 +811,8 @@
       <c r="A28" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="6">
-        <v>0</v>
+      <c r="B28" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\OneDrive\Documents\Couch_Party\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="032D89BC67406262B7FC6EF0CC60CD7E2FCF2F1F" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{71F5E545-DB86-4CBE-B23B-E37EADB84349}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="032D89BC67406262B7FC6EF0CC60CD7E2FCF2F1F" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{0AC46487-1BD8-4031-A0EC-70BF071CE01D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" xr2:uid="{ACCB3BAB-0A22-414B-8B50-5F6751B2C8D8}"/>
   </bookViews>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EEBBA7-D4A5-48E4-B590-45E9065EBDB3}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Docs/Prio.xlsx
+++ b/Docs/Prio.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\OneDrive\Documents\Couch_Party\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Couch_P\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="032D89BC67406262B7FC6EF0CC60CD7E2FCF2F1F" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{0AC46487-1BD8-4031-A0EC-70BF071CE01D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" xr2:uid="{ACCB3BAB-0A22-414B-8B50-5F6751B2C8D8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{ACCB3BAB-0A22-414B-8B50-5F6751B2C8D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Unifier le vocabulaire des fonctionnalités</t>
   </si>
@@ -140,9 +139,6 @@
   </si>
   <si>
     <t>Feedback de score (Audio et visu)</t>
-  </si>
-  <si>
-    <t>(bug plusieurs obj en même temps)</t>
   </si>
   <si>
     <t>feedback audio = OK       feedback visuels : en cours</t>
@@ -262,14 +258,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,33 +583,33 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="47.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="3"/>
+    <col min="1" max="1" width="51.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -629,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -637,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -645,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -653,18 +649,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -672,7 +665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -680,15 +673,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -696,30 +689,30 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -727,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -735,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -743,7 +736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -751,7 +744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -759,7 +752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -767,7 +760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>31</v>
       </c>
@@ -775,7 +768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>32</v>
       </c>
@@ -783,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>33</v>
       </c>
@@ -791,7 +784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>36</v>
       </c>
@@ -799,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>34</v>
       </c>
@@ -807,55 +800,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="B28" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="11"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="12"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="13"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="14"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="11"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="12"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="14"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="15"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -863,10 +856,10 @@
         <v>0.5</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -874,10 +867,10 @@
         <v>0.5</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -885,28 +878,28 @@
         <v>0.25</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="11"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="12"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="11"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="12"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="11"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="12"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
@@ -914,7 +907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
@@ -922,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -930,7 +923,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>29</v>
       </c>
@@ -938,31 +931,31 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="14"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="15"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="15"/>
+      <c r="B53" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
